--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_5.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_5.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9030117016867582</v>
+        <v>0.8261312853264955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6821404927727153</v>
+        <v>0.5812522965735698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7595231972974829</v>
+        <v>0.7053719901519782</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9459191418579652</v>
+        <v>0.7696279864296565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4037163810092441</v>
+        <v>0.4121023470029749</v>
       </c>
       <c r="G2" t="n">
-        <v>2.125527988437305</v>
+        <v>2.800167820968419</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8601715796207314</v>
+        <v>1.053867307712806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2645123055651971</v>
+        <v>0.9274837898600481</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8379277000484611</v>
+        <v>1.207091513943783</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6353867963762263</v>
+        <v>0.641951981851427</v>
       </c>
       <c r="L2" t="n">
-        <v>7.207251092047478</v>
+        <v>0.7632426012956535</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6453935032653774</v>
+        <v>0.6520620838490346</v>
       </c>
       <c r="N2" t="n">
-        <v>131.8140853495246</v>
+        <v>35.77296709085351</v>
       </c>
       <c r="O2" t="n">
-        <v>273.149257892741</v>
+        <v>72.73755067907933</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9009951670603988</v>
+        <v>0.8260740495313486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6800696739033454</v>
+        <v>0.5808446827817983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7574280133874094</v>
+        <v>0.7051902579171418</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9445769603472514</v>
+        <v>0.7705306908058565</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4121102602265523</v>
+        <v>0.4122380068630991</v>
       </c>
       <c r="G3" t="n">
-        <v>2.139375563752025</v>
+        <v>2.802893536270883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8676659309813207</v>
+        <v>1.054517353379375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2710769855292884</v>
+        <v>0.9238494782829363</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8459179496920574</v>
+        <v>1.216130525836118</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6419581452295409</v>
+        <v>0.6420576351567663</v>
       </c>
       <c r="L3" t="n">
-        <v>7.336309308134474</v>
+        <v>0.7631646631916236</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6520683442941927</v>
+        <v>0.6521694010883184</v>
       </c>
       <c r="N3" t="n">
-        <v>131.7729286870557</v>
+        <v>35.77230881973667</v>
       </c>
       <c r="O3" t="n">
-        <v>273.1081012302721</v>
+        <v>72.7368924079625</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8989423777940811</v>
+        <v>0.8260155457672551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6779814039163568</v>
+        <v>0.5804303115857312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7552874587595174</v>
+        <v>0.7050033714719428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9431985120952516</v>
+        <v>0.7714566217296184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4206550503505714</v>
+        <v>0.4123766720538824</v>
       </c>
       <c r="G4" t="n">
-        <v>2.153339834770617</v>
+        <v>2.805664438366988</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8753225707688017</v>
+        <v>1.055185835357553</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2778190480217356</v>
+        <v>0.9201216560140343</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8537956664659128</v>
+        <v>1.225229498101689</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6485792552576527</v>
+        <v>0.6421656110801033</v>
       </c>
       <c r="L4" t="n">
-        <v>7.467687821178806</v>
+        <v>0.7630849984915814</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6587937301865654</v>
+        <v>0.6522790775245116</v>
       </c>
       <c r="N4" t="n">
-        <v>131.731884277988</v>
+        <v>35.77163618949792</v>
       </c>
       <c r="O4" t="n">
-        <v>273.0670568212043</v>
+        <v>72.73621977772375</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8968345709023903</v>
+        <v>0.8259546378599465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6758495177245956</v>
+        <v>0.5800075445340132</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7530511500314048</v>
+        <v>0.7048110439750452</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9417698658493616</v>
+        <v>0.7724037968067267</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4294288528090027</v>
+        <v>0.4125210355272079</v>
       </c>
       <c r="G5" t="n">
-        <v>2.167595767551358</v>
+        <v>2.808491483588489</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8833217174206305</v>
+        <v>1.055873779662166</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2848066315276218</v>
+        <v>0.9163083042246289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8619342514609583</v>
+        <v>1.23422845308298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6553082120720011</v>
+        <v>0.6422780048602068</v>
       </c>
       <c r="L5" t="n">
-        <v>7.602587462247023</v>
+        <v>0.763002060064608</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6656286613442508</v>
+        <v>0.6523932413942993</v>
       </c>
       <c r="N5" t="n">
-        <v>131.6905984049618</v>
+        <v>35.77093615858028</v>
       </c>
       <c r="O5" t="n">
-        <v>273.0257709481782</v>
+        <v>72.7355197468061</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8946730654236776</v>
+        <v>0.8258902504373792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6736763954105908</v>
+        <v>0.5795753391219916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7507515381891957</v>
+        <v>0.7046129677718382</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9402826368416822</v>
+        <v>0.7733708709082286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.438426177069494</v>
+        <v>0.4126736461219737</v>
       </c>
       <c r="G6" t="n">
-        <v>2.182127446471416</v>
+        <v>2.811381643168802</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8915472956410564</v>
+        <v>1.05658228675592</v>
       </c>
       <c r="I6" t="n">
-        <v>0.292080746385258</v>
+        <v>0.9124148384392867</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8701950559491526</v>
+        <v>1.243090895449503</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6621375816773234</v>
+        <v>0.6423967980321614</v>
       </c>
       <c r="L6" t="n">
-        <v>7.740923812884631</v>
+        <v>0.7629143835743035</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6725655866939919</v>
+        <v>0.6525139054399627</v>
       </c>
       <c r="N6" t="n">
-        <v>131.6491276693244</v>
+        <v>35.77019640298127</v>
       </c>
       <c r="O6" t="n">
-        <v>272.9843002125408</v>
+        <v>72.73477999120709</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8924744454613283</v>
+        <v>0.8250778381584092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6714797263201171</v>
+        <v>0.5737919973955742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.748408215128046</v>
+        <v>0.7018813382359692</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9387374566479025</v>
+        <v>0.7868602260663184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4475779913589629</v>
+        <v>0.4145992197222976</v>
       </c>
       <c r="G7" t="n">
-        <v>2.196816582794145</v>
+        <v>2.850054875923194</v>
       </c>
       <c r="H7" t="n">
-        <v>0.899929226357111</v>
+        <v>1.066353167216743</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2996383035249193</v>
+        <v>0.8581063395426833</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8784125412591818</v>
+        <v>1.330923866743971</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6690126989519428</v>
+        <v>0.6438937953749031</v>
       </c>
       <c r="L7" t="n">
-        <v>7.881635490474991</v>
+        <v>0.7618081200454934</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6795489801930907</v>
+        <v>0.6540344789944041</v>
       </c>
       <c r="N7" t="n">
-        <v>131.6078089481725</v>
+        <v>35.76088592196688</v>
       </c>
       <c r="O7" t="n">
-        <v>272.9429814913889</v>
+        <v>72.7254695101927</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8901987192762109</v>
+        <v>0.8249606431428397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6692397489560096</v>
+        <v>0.5732416520176196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7459810642056337</v>
+        <v>0.7015952095983893</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9370805095426967</v>
+        <v>0.7880318891153192</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4570507623591955</v>
+        <v>0.4148769944850773</v>
       </c>
       <c r="G8" t="n">
-        <v>2.211795321742079</v>
+        <v>2.853735037999684</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9086110044722835</v>
+        <v>1.067376632762675</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3077425184737003</v>
+        <v>0.8533891932700768</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8867853313680393</v>
+        <v>1.338773903723991</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6760552953414355</v>
+        <v>0.6441094584657776</v>
       </c>
       <c r="L8" t="n">
-        <v>8.027281966322505</v>
+        <v>0.7616485353434412</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6867024904357043</v>
+        <v>0.6542535385633759</v>
       </c>
       <c r="N8" t="n">
-        <v>131.5659216337683</v>
+        <v>35.75954640303478</v>
       </c>
       <c r="O8" t="n">
-        <v>272.9010941769847</v>
+        <v>72.72412999126061</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8878990167659174</v>
+        <v>0.824836851148217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6669909765470059</v>
+        <v>0.5726806273929184</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7435260610363745</v>
+        <v>0.7013014644694802</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9354025869899858</v>
+        <v>0.7892139438857413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4666233354530649</v>
+        <v>0.4151704053590231</v>
       </c>
       <c r="G9" t="n">
-        <v>2.226832873195731</v>
+        <v>2.857486612248342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9173924084594607</v>
+        <v>1.068427342056461</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3159493254332303</v>
+        <v>0.848630209653525</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8950392335613108</v>
+        <v>1.346560860130879</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6830983351268431</v>
+        <v>0.6443371829710148</v>
       </c>
       <c r="L9" t="n">
-        <v>8.174462926981285</v>
+        <v>0.7614799675209764</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6938564510572753</v>
+        <v>0.6544848495019296</v>
       </c>
       <c r="N9" t="n">
-        <v>131.5244658179171</v>
+        <v>35.75813245541578</v>
       </c>
       <c r="O9" t="n">
-        <v>272.8596383611335</v>
+        <v>72.72271604364161</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8855414955977923</v>
+        <v>0.8280617169556911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6647210879545915</v>
+        <v>0.5705054376485739</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7409366901660357</v>
+        <v>0.7016657958843711</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9336361538768819</v>
+        <v>0.8072030963820783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4764365802537342</v>
+        <v>0.4075268521727854</v>
       </c>
       <c r="G10" t="n">
-        <v>2.242011628665082</v>
+        <v>2.872032116084601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9266544379223133</v>
+        <v>1.067124149710545</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3245890421726851</v>
+        <v>0.7762054082417061</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9034727765112857</v>
+        <v>1.255026676145337</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6902438556435937</v>
+        <v>0.6383782986386562</v>
       </c>
       <c r="L10" t="n">
-        <v>8.325344281741295</v>
+        <v>0.7658712741524304</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7011145063792648</v>
+        <v>0.6484321186980354</v>
       </c>
       <c r="N10" t="n">
-        <v>131.4828413194025</v>
+        <v>35.7952969071393</v>
       </c>
       <c r="O10" t="n">
-        <v>272.8180138626189</v>
+        <v>72.75988049536512</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8806481660138786</v>
+        <v>0.8279786695063364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6600291679567377</v>
+        <v>0.5699003674657912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7355439720245901</v>
+        <v>0.7013620951488357</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9299465068050842</v>
+        <v>0.808613199902515</v>
       </c>
       <c r="F11" t="n">
-        <v>0.496805195283176</v>
+        <v>0.4077236906256145</v>
       </c>
       <c r="G11" t="n">
-        <v>2.273386519295035</v>
+        <v>2.876078223182961</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9459438780265002</v>
+        <v>1.068210469631975</v>
       </c>
       <c r="I11" t="n">
-        <v>0.342635298966908</v>
+        <v>0.7705282943555166</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9207697207064757</v>
+        <v>1.258783658733473</v>
       </c>
       <c r="K11" t="n">
-        <v>0.704844092890886</v>
+        <v>0.6385324507224472</v>
       </c>
       <c r="L11" t="n">
-        <v>8.638517375111768</v>
+        <v>0.7657581882639474</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7159446827683191</v>
+        <v>0.6485886985230505</v>
       </c>
       <c r="N11" t="n">
-        <v>131.3991145818465</v>
+        <v>35.79433112571963</v>
       </c>
       <c r="O11" t="n">
-        <v>272.7342871250628</v>
+        <v>72.75891471394544</v>
       </c>
     </row>
   </sheetData>
